--- a/user/static/excel/import_users.xlsx
+++ b/user/static/excel/import_users.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FSA\FSA\database\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodePythonanywhere couses\COURSES_LMS\Courseslms\Courseslms\user\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0AB197-111B-4251-9E4B-711A1A695361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5832"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -83,12 +82,15 @@
   </si>
   <si>
     <t>superadmin</t>
+  </si>
+  <si>
+    <t>tc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,14 +452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,6 +556,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
